--- a/Saved_file/EM003/2026_05/sap_data.xlsx
+++ b/Saved_file/EM003/2026_05/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST2538</t>
+          <t>CUST3579</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35009421</v>
+        <v>37885144</v>
       </c>
       <c r="E2" t="n">
-        <v>7878733</v>
+        <v>8938513</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST2526</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19919441</v>
+        <v>25181212</v>
       </c>
       <c r="E3" t="n">
-        <v>3368275</v>
+        <v>4396006</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST4840</t>
+          <t>CUST9198</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16947722</v>
+        <v>25446356</v>
       </c>
       <c r="E4" t="n">
-        <v>3203633</v>
+        <v>6112232</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3396</t>
+          <t>CUST1082</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19103640</v>
+        <v>27277293</v>
       </c>
       <c r="E5" t="n">
-        <v>4506744</v>
+        <v>4498057</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST6458</t>
+          <t>CUST8027</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16540076</v>
+        <v>23936834</v>
       </c>
       <c r="E6" t="n">
-        <v>3331526</v>
+        <v>4556136</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5470</t>
+          <t>CUST3800</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18533490</v>
+        <v>26277699</v>
       </c>
       <c r="E7" t="n">
-        <v>3266238</v>
+        <v>4209084</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST5901</t>
+          <t>CUST7299</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16458572</v>
+        <v>29851642</v>
       </c>
       <c r="E8" t="n">
-        <v>2729231</v>
+        <v>5727570</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4971</t>
+          <t>CUST8356</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26902682</v>
+        <v>26742576</v>
       </c>
       <c r="E9" t="n">
-        <v>6230096</v>
+        <v>4441958</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST7417</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33295584</v>
+        <v>19596098</v>
       </c>
       <c r="E10" t="n">
-        <v>8016735</v>
+        <v>3038334</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9072</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29442300</v>
+        <v>19189253</v>
       </c>
       <c r="E11" t="n">
-        <v>4707836</v>
+        <v>3956468</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST7428</t>
+          <t>CUST4003</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20180101</v>
+        <v>20651389</v>
       </c>
       <c r="E12" t="n">
-        <v>3429127</v>
+        <v>3593688</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9304</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17953097</v>
+        <v>32973548</v>
       </c>
       <c r="E13" t="n">
-        <v>2734294</v>
+        <v>5976055</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9072</t>
+          <t>CUST7430</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15228180</v>
+        <v>20887465</v>
       </c>
       <c r="E14" t="n">
-        <v>3734798</v>
+        <v>3170053</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST6470</t>
+          <t>CUST6944</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36060582</v>
+        <v>36843966</v>
       </c>
       <c r="E15" t="n">
-        <v>6559084</v>
+        <v>7348672</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29964250</v>
+        <v>30956688</v>
       </c>
       <c r="E16" t="n">
-        <v>5074359</v>
+        <v>5369147</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST6237</t>
+          <t>CUST9407</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23464752</v>
+        <v>36339029</v>
       </c>
       <c r="E17" t="n">
-        <v>5239637</v>
+        <v>6958404</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18437793</v>
+        <v>35532711</v>
       </c>
       <c r="E18" t="n">
-        <v>4044055</v>
+        <v>7770872</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5901</t>
+          <t>CUST6156</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31647692</v>
+        <v>33524597</v>
       </c>
       <c r="E19" t="n">
-        <v>5507417</v>
+        <v>6366087</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST9424</t>
+          <t>CUST7299</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18211347</v>
+        <v>20204685</v>
       </c>
       <c r="E20" t="n">
-        <v>3642357</v>
+        <v>4632298</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST2526</t>
+          <t>CUST7430</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16434846</v>
+        <v>19274437</v>
       </c>
       <c r="E21" t="n">
-        <v>3454633</v>
+        <v>4572809</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-05-29</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST9304</t>
+          <t>CUST6707</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18480648</v>
+        <v>36759774</v>
       </c>
       <c r="E22" t="n">
-        <v>2793977</v>
+        <v>7781409</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST9022</t>
+          <t>CUST5310</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37710523</v>
+        <v>38484819</v>
       </c>
       <c r="E23" t="n">
-        <v>5805646</v>
+        <v>7398993</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST3747</t>
+          <t>CUST3579</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18732093</v>
+        <v>33947314</v>
       </c>
       <c r="E24" t="n">
-        <v>3847240</v>
+        <v>6103070</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST2495</t>
+          <t>CUST9626</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24343261</v>
+        <v>22367343</v>
       </c>
       <c r="E25" t="n">
-        <v>6009223</v>
+        <v>4280051</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST2162</t>
+          <t>CUST7842</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24194098</v>
+        <v>31549104</v>
       </c>
       <c r="E26" t="n">
-        <v>5547677</v>
+        <v>6741012</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8004</t>
+          <t>CUST7417</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22643819</v>
+        <v>27190541</v>
       </c>
       <c r="E27" t="n">
-        <v>4801638</v>
+        <v>6044994</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST2011</t>
+          <t>CUST9722</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16418253</v>
+        <v>33615126</v>
       </c>
       <c r="E28" t="n">
-        <v>3168119</v>
+        <v>5233178</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST1289</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23386592</v>
+        <v>17377986</v>
       </c>
       <c r="E29" t="n">
-        <v>4219547</v>
+        <v>3987903</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST9036</t>
+          <t>CUST6707</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26295634</v>
+        <v>34791872</v>
       </c>
       <c r="E30" t="n">
-        <v>6144400</v>
+        <v>8491818</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST3747</t>
+          <t>CUST5975</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18051786</v>
+        <v>18603597</v>
       </c>
       <c r="E31" t="n">
-        <v>4226922</v>
+        <v>4607002</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST9022</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30210582</v>
+        <v>23008634</v>
       </c>
       <c r="E32" t="n">
-        <v>4925216</v>
+        <v>4136742</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST7714</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17464027</v>
+        <v>21688412</v>
       </c>
       <c r="E33" t="n">
-        <v>3746564</v>
+        <v>4523558</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST5901</t>
+          <t>CUST1599</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35594683</v>
+        <v>26560014</v>
       </c>
       <c r="E34" t="n">
-        <v>8430997</v>
+        <v>5320855</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST8530</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19198908</v>
+        <v>20598018</v>
       </c>
       <c r="E35" t="n">
-        <v>4019376</v>
+        <v>3260892</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST3811</t>
+          <t>CUST5975</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>28567565</v>
+        <v>37243848</v>
       </c>
       <c r="E36" t="n">
-        <v>6643899</v>
+        <v>5679899</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3811</t>
+          <t>CUST9407</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38648182</v>
+        <v>29094886</v>
       </c>
       <c r="E37" t="n">
-        <v>8989216</v>
+        <v>5790415</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2495</t>
+          <t>CUST9626</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>37353164</v>
+        <v>36204902</v>
       </c>
       <c r="E38" t="n">
-        <v>6766410</v>
+        <v>6929182</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2526</t>
+          <t>CUST8316</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15039946</v>
+        <v>23783079</v>
       </c>
       <c r="E39" t="n">
-        <v>3341693</v>
+        <v>5651653</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST6470</t>
+          <t>CUST9198</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>15185537</v>
+        <v>39942543</v>
       </c>
       <c r="E40" t="n">
-        <v>3518998</v>
+        <v>7384058</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST2011</t>
+          <t>CUST1596</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>31525869</v>
+        <v>29672502</v>
       </c>
       <c r="E41" t="n">
-        <v>6199321</v>
+        <v>5148438</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST2011</t>
+          <t>CUST7299</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29274857</v>
+        <v>22971733</v>
       </c>
       <c r="E42" t="n">
-        <v>6278845</v>
+        <v>5730774</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST6905</t>
+          <t>CUST8336</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19861931</v>
+        <v>20882350</v>
       </c>
       <c r="E43" t="n">
-        <v>4750625</v>
+        <v>4950299</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST1693</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>34742051</v>
+        <v>20737662</v>
       </c>
       <c r="E44" t="n">
-        <v>8104506</v>
+        <v>4814641</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST3891</t>
+          <t>CUST5521</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20293366</v>
+        <v>16933145</v>
       </c>
       <c r="E45" t="n">
-        <v>5019684</v>
+        <v>3456045</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2162</t>
+          <t>CUST5244</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30290240</v>
+        <v>30561513</v>
       </c>
       <c r="E46" t="n">
-        <v>5731798</v>
+        <v>6342428</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST6458</t>
+          <t>CUST7430</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>34268889</v>
+        <v>37585303</v>
       </c>
       <c r="E47" t="n">
-        <v>6162825</v>
+        <v>6353207</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6237</t>
+          <t>CUST1599</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31058517</v>
+        <v>20226070</v>
       </c>
       <c r="E48" t="n">
-        <v>6803480</v>
+        <v>3354105</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,22 +3030,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-05-29</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST5757</t>
+          <t>CUST9722</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>16904040</v>
+        <v>26760061</v>
       </c>
       <c r="E49" t="n">
-        <v>2704993</v>
+        <v>4164440</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>57</v>
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST9608</t>
+          <t>CUST1794</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>18900076</v>
+        <v>21295115</v>
       </c>
       <c r="E50" t="n">
-        <v>4065135</v>
+        <v>3571917</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST5757</t>
+          <t>CUST9626</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>27846415</v>
+        <v>29345229</v>
       </c>
       <c r="E51" t="n">
-        <v>5389368</v>
+        <v>6443827</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST9036</t>
+          <t>CUST2600</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>28102623</v>
+        <v>39456426</v>
       </c>
       <c r="E52" t="n">
-        <v>4258275</v>
+        <v>7498252</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28301957</v>
+        <v>35095223</v>
       </c>
       <c r="E53" t="n">
-        <v>5892521</v>
+        <v>7500763</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST5244</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>15615619</v>
+        <v>15994515</v>
       </c>
       <c r="E54" t="n">
-        <v>3276792</v>
+        <v>3180341</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5030</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24614841</v>
+        <v>24588827</v>
       </c>
       <c r="E55" t="n">
-        <v>5342389</v>
+        <v>3776374</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9304</t>
+          <t>CUST4341</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>36072548</v>
+        <v>36522476</v>
       </c>
       <c r="E56" t="n">
-        <v>7402591</v>
+        <v>6990436</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST6470</t>
+          <t>CUST7299</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15366772</v>
+        <v>28239021</v>
       </c>
       <c r="E57" t="n">
-        <v>3421759</v>
+        <v>4874925</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9072</t>
+          <t>CUST5310</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>29508856</v>
+        <v>17473279</v>
       </c>
       <c r="E58" t="n">
-        <v>5518826</v>
+        <v>3803254</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST6509</t>
+          <t>CUST9414</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19320340</v>
+        <v>23430575</v>
       </c>
       <c r="E59" t="n">
-        <v>4034487</v>
+        <v>3701720</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3635</t>
+          <t>CUST6788</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>23368900</v>
+        <v>39347261</v>
       </c>
       <c r="E60" t="n">
-        <v>4456633</v>
+        <v>6756448</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST1289</t>
+          <t>CUST3579</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>31282829</v>
+        <v>27650016</v>
       </c>
       <c r="E61" t="n">
-        <v>5905538</v>
+        <v>6837421</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST9608</t>
+          <t>CUST9711</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33319005</v>
+        <v>18542027</v>
       </c>
       <c r="E62" t="n">
-        <v>6531064</v>
+        <v>4464616</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST4715</t>
+          <t>CUST5244</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>36393196</v>
+        <v>21292895</v>
       </c>
       <c r="E63" t="n">
-        <v>7178907</v>
+        <v>5204912</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST7865</t>
+          <t>CUST9407</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>27581375</v>
+        <v>20344395</v>
       </c>
       <c r="E64" t="n">
-        <v>6681720</v>
+        <v>4557154</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST2490</t>
+          <t>CUST1082</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>32672579</v>
+        <v>36440250</v>
       </c>
       <c r="E65" t="n">
-        <v>7398173</v>
+        <v>6148434</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST9338</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>28040836</v>
+        <v>32163295</v>
       </c>
       <c r="E66" t="n">
-        <v>4791973</v>
+        <v>5218867</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST4971</t>
+          <t>CUST7299</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15010360</v>
+        <v>29870194</v>
       </c>
       <c r="E67" t="n">
-        <v>2949053</v>
+        <v>6234213</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST7428</t>
+          <t>CUST9198</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33635500</v>
+        <v>17429880</v>
       </c>
       <c r="E68" t="n">
-        <v>5957619</v>
+        <v>3270919</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST2182</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>33376994</v>
+        <v>19119810</v>
       </c>
       <c r="E69" t="n">
-        <v>6234866</v>
+        <v>4228517</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST5030</t>
+          <t>CUST3800</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>26781938</v>
+        <v>24258420</v>
       </c>
       <c r="E70" t="n">
-        <v>4374356</v>
+        <v>4160037</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST3747</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34357988</v>
+        <v>21144488</v>
       </c>
       <c r="E71" t="n">
-        <v>5791237</v>
+        <v>5097125</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,12 +4250,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST2490</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17323799</v>
+        <v>27498968</v>
       </c>
       <c r="E72" t="n">
-        <v>3033513</v>
+        <v>4591986</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4331,24 +4331,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST9036</t>
+          <t>CUST6156</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>17664903</v>
+        <v>19168088</v>
       </c>
       <c r="E73" t="n">
-        <v>3581080</v>
+        <v>3718808</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST6092</t>
+          <t>CUST8331</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>27502676</v>
+        <v>38020621</v>
       </c>
       <c r="E74" t="n">
-        <v>5443701</v>
+        <v>8257947</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST3747</t>
+          <t>CUST9338</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>32803130</v>
+        <v>36225398</v>
       </c>
       <c r="E75" t="n">
-        <v>5253988</v>
+        <v>8682385</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4488,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST6056</t>
+          <t>CUST4501</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>23034615</v>
+        <v>32758021</v>
       </c>
       <c r="E76" t="n">
-        <v>3925011</v>
+        <v>6551024</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>54</v>
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1693</t>
+          <t>CUST9198</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>15415804</v>
+        <v>19061453</v>
       </c>
       <c r="E77" t="n">
-        <v>2475889</v>
+        <v>4703874</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST2526</t>
+          <t>CUST8530</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>39549146</v>
+        <v>20810542</v>
       </c>
       <c r="E78" t="n">
-        <v>7471192</v>
+        <v>3955257</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST8004</t>
+          <t>CUST6156</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>23456079</v>
+        <v>39457901</v>
       </c>
       <c r="E79" t="n">
-        <v>4951605</v>
+        <v>9264459</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST5549</t>
+          <t>CUST8316</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16068625</v>
+        <v>38817738</v>
       </c>
       <c r="E80" t="n">
-        <v>3803329</v>
+        <v>6738638</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST2490</t>
+          <t>CUST1794</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>25520710</v>
+        <v>33747257</v>
       </c>
       <c r="E81" t="n">
-        <v>5934884</v>
+        <v>7728786</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST8004</t>
+          <t>CUST1599</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>23625896</v>
+        <v>38363569</v>
       </c>
       <c r="E82" t="n">
-        <v>5481436</v>
+        <v>8882619</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST1938</t>
+          <t>CUST8331</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>39470765</v>
+        <v>19996730</v>
       </c>
       <c r="E83" t="n">
-        <v>9244903</v>
+        <v>3383620</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4903,12 +4903,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>22294392</v>
+        <v>31550985</v>
       </c>
       <c r="E84" t="n">
-        <v>5475511</v>
+        <v>7810687</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST1289</t>
+          <t>CUST5244</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>29460319</v>
+        <v>36424731</v>
       </c>
       <c r="E85" t="n">
-        <v>6814746</v>
+        <v>5523767</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST1289</t>
+          <t>CUST9626</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>23499017</v>
+        <v>25190223</v>
       </c>
       <c r="E86" t="n">
-        <v>4753448</v>
+        <v>3984848</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5065,12 +5065,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST2490</t>
+          <t>CUST9198</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>23376137</v>
+        <v>22461639</v>
       </c>
       <c r="E87" t="n">
-        <v>5084924</v>
+        <v>3754850</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST4262</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>31933898</v>
+        <v>28838695</v>
       </c>
       <c r="E88" t="n">
-        <v>6788983</v>
+        <v>5931996</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5195,20 +5195,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST5901</t>
+          <t>CUST4341</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>36709994</v>
+        <v>33897605</v>
       </c>
       <c r="E89" t="n">
-        <v>9098293</v>
+        <v>7717989</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST9072</t>
+          <t>CUST8336</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>32850574</v>
+        <v>17679625</v>
       </c>
       <c r="E90" t="n">
-        <v>6555546</v>
+        <v>3999479</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST1931</t>
+          <t>CUST1082</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>28033466</v>
+        <v>31477283</v>
       </c>
       <c r="E91" t="n">
-        <v>4382609</v>
+        <v>5550752</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.40000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5544154</v>
+        <v>4352880</v>
       </c>
       <c r="E2" t="n">
-        <v>1594763</v>
+        <v>1049373</v>
       </c>
     </row>
     <row r="3">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2744860</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>301563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.40000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6703134</v>
+        <v>17320792</v>
       </c>
       <c r="E5" t="n">
-        <v>735265</v>
+        <v>4242197</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.5</v>
+        <v>80.3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7933273</v>
+        <v>6543886</v>
       </c>
       <c r="E6" t="n">
-        <v>1133143</v>
+        <v>1504875</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.2</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>7493514</v>
+        <v>11923165</v>
       </c>
       <c r="E7" t="n">
-        <v>877631</v>
+        <v>3405812</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>80.7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7517649</v>
+        <v>3177468</v>
       </c>
       <c r="E8" t="n">
-        <v>1170297</v>
+        <v>333421</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>78.7</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>14687014</v>
+        <v>5447340</v>
       </c>
       <c r="E9" t="n">
-        <v>3555376</v>
+        <v>946796</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2741090</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>333861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1559890</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>7666923</v>
+        <v>10921989</v>
       </c>
       <c r="E12" t="n">
-        <v>1876738</v>
+        <v>3004909</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.5</v>
+        <v>85.2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>2341207</v>
+        <v>12720827</v>
       </c>
       <c r="E13" t="n">
-        <v>308837</v>
+        <v>2640328</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.7</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>4278755</v>
+        <v>5003934</v>
       </c>
       <c r="E14" t="n">
-        <v>1069995</v>
+        <v>1327295</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3334746</v>
+        <v>9118728</v>
       </c>
       <c r="E15" t="n">
-        <v>639506</v>
+        <v>2060348</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4011368</v>
+        <v>5299476</v>
       </c>
       <c r="E16" t="n">
-        <v>762106</v>
+        <v>1582908</v>
       </c>
     </row>
     <row r="17">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>9016337</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2375341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.8</v>
+        <v>89.3</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6232127</v>
+        <v>7339951</v>
       </c>
       <c r="E19" t="n">
-        <v>1139396</v>
+        <v>1834049</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>10986500</v>
+        <v>13447837</v>
       </c>
       <c r="E20" t="n">
-        <v>1347198</v>
+        <v>1869609</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90</v>
+        <v>87.7</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>8293867</v>
+        <v>14844440</v>
       </c>
       <c r="E21" t="n">
-        <v>2148948</v>
+        <v>4373240</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83</v>
+        <v>88.3</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>8247599</v>
+        <v>2271209</v>
       </c>
       <c r="E22" t="n">
-        <v>1480427</v>
+        <v>245719</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.3</v>
+        <v>77.7</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>20421654</v>
+        <v>13883377</v>
       </c>
       <c r="E23" t="n">
-        <v>5736652</v>
+        <v>1933752</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3748441</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>442872</v>
       </c>
     </row>
     <row r="25">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>13366541</v>
+        <v>21693667</v>
       </c>
       <c r="E26" t="n">
-        <v>3131741</v>
+        <v>2357314</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>3498643</v>
+        <v>7939449</v>
       </c>
       <c r="E27" t="n">
-        <v>774870</v>
+        <v>2307543</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5795495</v>
+        <v>7060833</v>
       </c>
       <c r="E28" t="n">
-        <v>1344756</v>
+        <v>1288796</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.7</v>
+        <v>79.3</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>3542182</v>
+        <v>5559693</v>
       </c>
       <c r="E29" t="n">
-        <v>482864</v>
+        <v>1563059</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.8</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>6475256</v>
+        <v>8541356</v>
       </c>
       <c r="E30" t="n">
-        <v>915705</v>
+        <v>1662999</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8236994</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1335324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>11149239</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2560585</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
